--- a/SuppXLS/Scen_ELC_MANHEAT_20_50.xlsx
+++ b/SuppXLS/Scen_ELC_MANHEAT_20_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4A3E1777-83FE-4A4E-9A68-C7A3C89F46BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F05D613-39F7-4694-8C15-5A133B9A43CA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4A3E1777-83FE-4A4E-9A68-C7A3C89F46BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB9DD344-7C0F-42BE-B359-6FEA426D6831}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6B611D2-F4E9-4A62-AC12-A4501F9E91B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>~TFM_MIG</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>FLO_SHAR</t>
-  </si>
-  <si>
-    <t>ETH</t>
   </si>
   <si>
     <t>MANHEAT</t>
@@ -165,6 +162,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8E544-DD6D-449F-990A-C976BCA1E820}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -540,14 +541,11 @@
       <c r="D3">
         <v>2030</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>0.2</v>
@@ -563,14 +561,11 @@
       <c r="D4" s="3">
         <v>2050</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
       <c r="H4">
         <v>0.5</v>

--- a/SuppXLS/Scen_ELC_MANHEAT_20_50.xlsx
+++ b/SuppXLS/Scen_ELC_MANHEAT_20_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4A3E1777-83FE-4A4E-9A68-C7A3C89F46BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB9DD344-7C0F-42BE-B359-6FEA426D6831}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4A3E1777-83FE-4A4E-9A68-C7A3C89F46BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF4DADE9-3CCA-40BE-AD1F-13C268751BBB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6B611D2-F4E9-4A62-AC12-A4501F9E91B9}"/>
   </bookViews>
@@ -488,13 +488,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
